--- a/data/profiling_result/004001_01_01_066_filtbackproj_multicore.xlsx
+++ b/data/profiling_result/004001_01_01_066_filtbackproj_multicore.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TEEP\CT-Image-Reconstruction-Project\data\profiling_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60988EF0-FC17-400E-8BAC-BEE81D539938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1E6B63-8DBD-4FDA-BFE3-92EFF7B97640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore.py:34(getProj)</t>
+    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore_full_parallelization.py:34(getProj)</t>
   </si>
   <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\parallel.py:1969(__call__)</t>
@@ -60,7 +60,7 @@
     <t>361</t>
   </si>
   <si>
-    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore.py:27(_single_proj)</t>
+    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore_full_parallelization.py:27(_single_proj)</t>
   </si>
   <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:2358(rotate)</t>
@@ -99,6 +99,18 @@
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:764(tobytes)</t>
   </si>
   <si>
+    <t>{method 'join' of 'bytes' objects}</t>
+  </si>
+  <si>
+    <t>717</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:3068(new)</t>
+  </si>
+  <si>
+    <t>{built-in method PIL._imaging.new}</t>
+  </si>
+  <si>
     <t>3258</t>
   </si>
   <si>
@@ -108,97 +120,91 @@
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:3250(fromarray)</t>
   </si>
   <si>
-    <t>717</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:3068(new)</t>
-  </si>
-  <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:3166(frombuffer)</t>
   </si>
   <si>
-    <t>{method 'join' of 'bytes' objects}</t>
-  </si>
-  <si>
-    <t>{built-in method PIL._imaging.new}</t>
-  </si>
-  <si>
-    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore.py:42(&lt;genexpr&gt;)</t>
+    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore_full_parallelization.py:42(&lt;genexpr&gt;)</t>
   </si>
   <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\parallel.py:674(delayed)</t>
   </si>
   <si>
+    <t>1083</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:588(_new)</t>
+  </si>
+  <si>
     <t>1079</t>
   </si>
   <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:884(load)</t>
   </si>
   <si>
-    <t>1083</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:588(_new)</t>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:439(_getencoder)</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\functools.py:35(update_wrapper)</t>
+  </si>
+  <si>
+    <t>5041</t>
+  </si>
+  <si>
+    <t>{built-in method builtins.isinstance}</t>
+  </si>
+  <si>
+    <t>1424</t>
+  </si>
+  <si>
+    <t>{built-in method builtins.round}</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:2972(transpose)</t>
+  </si>
+  <si>
+    <t>{method 'transpose' of 'ImagingCore' objects}</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:244(_conv_type_shape)</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:543(__init__)</t>
+  </si>
+  <si>
+    <t>2158</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:553(im)</t>
+  </si>
+  <si>
+    <t>1078</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:3049(_check_size)</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\_core\shape_base.py:380(stack)</t>
+  </si>
+  <si>
+    <t>2893</t>
+  </si>
+  <si>
+    <t>{built-in method builtins.getattr}</t>
   </si>
   <si>
     <t>{built-in method PIL._imaging.map_buffer}</t>
   </si>
   <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:439(_getencoder)</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\functools.py:35(update_wrapper)</t>
-  </si>
-  <si>
-    <t>5041</t>
-  </si>
-  <si>
-    <t>{built-in method builtins.isinstance}</t>
-  </si>
-  <si>
-    <t>1424</t>
-  </si>
-  <si>
-    <t>{built-in method builtins.round}</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:244(_conv_type_shape)</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:543(__init__)</t>
-  </si>
-  <si>
-    <t>2158</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:553(im)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:2972(transpose)</t>
-  </si>
-  <si>
-    <t>{method 'transpose' of 'ImagingCore' objects}</t>
-  </si>
-  <si>
-    <t>1078</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:3049(_check_size)</t>
-  </si>
-  <si>
-    <t>2893</t>
-  </si>
-  <si>
-    <t>{built-in method builtins.getattr}</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\_core\shape_base.py:380(stack)</t>
+    <t>&lt;frozen importlib._bootstrap&gt;:1207(_handle_fromlist)</t>
+  </si>
+  <si>
+    <t>{built-in method PIL._imaging.fill}</t>
   </si>
   <si>
     <t>357</t>
@@ -207,37 +213,37 @@
     <t>&lt;frozen abc&gt;:117(__instancecheck__)</t>
   </si>
   <si>
-    <t>&lt;frozen importlib._bootstrap&gt;:1207(_handle_fromlist)</t>
-  </si>
-  <si>
-    <t>{built-in method PIL._imaging.fill}</t>
-  </si>
-  <si>
     <t>&lt;frozen importlib._bootstrap&gt;:405(parent)</t>
   </si>
   <si>
+    <t>727</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:564(width)</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:580(readonly)</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:568(height)</t>
+  </si>
+  <si>
     <t>{method 'pixel_access' of 'ImagingCore' objects}</t>
   </si>
   <si>
-    <t>727</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:564(width)</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:580(readonly)</t>
+    <t>{method 'append' of 'list' objects}</t>
+  </si>
+  <si>
+    <t>{built-in method _abc._abc_instancecheck}</t>
   </si>
   <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\functools.py:65(wraps)</t>
   </si>
   <si>
-    <t>{method 'append' of 'list' objects}</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:568(height)</t>
-  </si>
-  <si>
-    <t>{built-in method _abc._abc_instancecheck}</t>
+    <t>2527</t>
+  </si>
+  <si>
+    <t>{built-in method builtins.len}</t>
   </si>
   <si>
     <t>2872</t>
@@ -246,22 +252,19 @@
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:576(mode)</t>
   </si>
   <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\_core\fromnumeric.py:70(&lt;dictcomp&gt;)</t>
+  </si>
+  <si>
+    <t>2161</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:584(readonly)</t>
+  </si>
+  <si>
     <t>{method 'setimage' of 'ImagingEncoder' objects}</t>
   </si>
   <si>
-    <t>2527</t>
-  </si>
-  <si>
-    <t>{built-in method builtins.len}</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\_core\fromnumeric.py:70(&lt;dictcomp&gt;)</t>
-  </si>
-  <si>
-    <t>2161</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:584(readonly)</t>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:2443(transform)</t>
   </si>
   <si>
     <t>2172</t>
@@ -270,57 +273,54 @@
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:572(size)</t>
   </si>
   <si>
+    <t>{built-in method builtins.max}</t>
+  </si>
+  <si>
     <t>{built-in method PIL._imaging.raw_encoder}</t>
   </si>
   <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>{built-in method builtins.setattr}</t>
+  </si>
+  <si>
     <t>712</t>
   </si>
   <si>
     <t>{built-in method math.cos}</t>
   </si>
   <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>{built-in method builtins.setattr}</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:2443(transform)</t>
-  </si>
-  <si>
     <t>721</t>
   </si>
   <si>
     <t>{built-in method builtins.hasattr}</t>
   </si>
   <si>
-    <t>{built-in method builtins.max}</t>
-  </si>
-  <si>
     <t>{method 'rpartition' of 'str' objects}</t>
   </si>
   <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>{method 'copy' of 'dict' objects}</t>
+  </si>
+  <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\Image.py:560(im)</t>
   </si>
   <si>
+    <t>{built-in method math.sin}</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\parallel.py:1569(print_progress)</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\parallel.py:1212(__init__)</t>
+  </si>
+  <si>
     <t>{method 'update' of 'dict' objects}</t>
   </si>
   <si>
-    <t>{built-in method math.sin}</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\parallel.py:1569(print_progress)</t>
-  </si>
-  <si>
-    <t>1440</t>
-  </si>
-  <si>
-    <t>{method 'copy' of 'dict' objects}</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\parallel.py:1212(__init__)</t>
-  </si>
-  <si>
     <t>{built-in method math.radians}</t>
   </si>
   <si>
@@ -330,12 +330,12 @@
     <t>{method 'items' of 'dict' objects}</t>
   </si>
   <si>
+    <t>{method 'get' of 'dict' objects}</t>
+  </si>
+  <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\_core\fromnumeric.py:2333(_sum_dispatcher)</t>
   </si>
   <si>
-    <t>{method 'get' of 'dict' objects}</t>
-  </si>
-  <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\_core\shape_base.py:454(&lt;listcomp&gt;)</t>
   </si>
   <si>
@@ -360,88 +360,88 @@
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\queue.py:34(__init__)</t>
   </si>
   <si>
+    <t>{built-in method numpy.asanyarray}</t>
+  </si>
+  <si>
     <t>2/1</t>
   </si>
   <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\parallel.py:1376(_initialize_backend)</t>
   </si>
   <si>
-    <t>{built-in method numpy.asanyarray}</t>
-  </si>
-  <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\PIL\ImageMode.py:37(getmode)</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\threading.py:243(__init__)</t>
+  </si>
+  <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\uuid.py:139(__init__)</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\threading.py:243(__init__)</t>
-  </si>
-  <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\_parallel_backends.py:490(configure)</t>
   </si>
   <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\_core\shape_base.py:370(_stack_dispatcher)</t>
+  </si>
+  <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\parallel.py:1930(_reset_run_tracking)</t>
   </si>
   <si>
+    <t>&lt;string&gt;:1(&lt;lambda&gt;)</t>
+  </si>
+  <si>
     <t>{built-in method builtins.next}</t>
   </si>
   <si>
+    <t>{built-in method nt.urandom}</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&lt;frozen abc&gt;:121(__subclasscheck__)</t>
+  </si>
+  <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\_parallel_backends.py:382(__init__)</t>
   </si>
   <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\_core\shape_base.py:370(_stack_dispatcher)</t>
-  </si>
-  <si>
-    <t>&lt;string&gt;:1(&lt;lambda&gt;)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>&lt;frozen abc&gt;:121(__subclasscheck__)</t>
-  </si>
-  <si>
-    <t>{built-in method nt.urandom}</t>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\_core\shape_base.py:208(_arrays_for_stack_dispatcher)</t>
   </si>
   <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\disk.py:39(memstr_to_bytes)</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\parallel.py:111(_get_config_param)</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\parallel.py:1260(&lt;dictcomp&gt;)</t>
+  </si>
+  <si>
+    <t>{built-in method _abc._abc_subclasscheck}</t>
+  </si>
+  <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\_parallel_backends.py:51(__init__)</t>
   </si>
   <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\_core\shape_base.py:208(_arrays_for_stack_dispatcher)</t>
-  </si>
-  <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\threading.py:90(RLock)</t>
   </si>
   <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\parallel.py:1260(&lt;dictcomp&gt;)</t>
-  </si>
-  <si>
-    <t>{built-in method _abc._abc_subclasscheck}</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\parallel.py:111(_get_config_param)</t>
+    <t>{built-in method numpy.lib.array_utils.normalize_axis_index}</t>
   </si>
   <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\uuid.py:334(hex)</t>
   </si>
   <si>
-    <t>{built-in method numpy.lib.array_utils.normalize_axis_index}</t>
-  </si>
-  <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\multiprocessing\context.py:237(get_context)</t>
   </si>
   <si>
-    <t>{built-in method __new__ of type object at 0x00007FFF912B6900}</t>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\logger.py:67(__init__)</t>
   </si>
   <si>
     <t>{built-in method _thread.allocate_lock}</t>
@@ -450,55 +450,55 @@
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\_parallel_backends.py:157(configure)</t>
   </si>
   <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\logger.py:67(__init__)</t>
-  </si>
-  <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\parallel.py:1543(_get_batch_size)</t>
   </si>
   <si>
+    <t>&lt;string&gt;:2(__eq__)</t>
+  </si>
+  <si>
+    <t>{method 'disable' of '_lsprof.Profiler' objects}</t>
+  </si>
+  <si>
+    <t>{built-in method __new__ of type object at 0x00007FF9F6496900}</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\contextlib.py:763(__init__)</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\queue.py:206(_init)</t>
+  </si>
+  <si>
+    <t>{built-in method from_bytes}</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\_parallel_backends.py:311(effective_n_jobs)</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\_parallel_backends.py:735(__init__)</t>
+  </si>
+  <si>
     <t>{built-in method time.time}</t>
   </si>
   <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\_parallel_backends.py:735(__init__)</t>
-  </si>
-  <si>
-    <t>&lt;string&gt;:2(__eq__)</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\queue.py:206(_init)</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\contextlib.py:763(__init__)</t>
-  </si>
-  <si>
-    <t>{method 'disable' of '_lsprof.Profiler' objects}</t>
-  </si>
-  <si>
-    <t>{built-in method from_bytes}</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\_parallel_backends.py:311(effective_n_jobs)</t>
-  </si>
-  <si>
     <t>{method 'count' of 'list' objects}</t>
   </si>
   <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\_core\multiarray.py:188(concatenate)</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\_parallel_backends.py:284(effective_n_jobs)</t>
+  </si>
+  <si>
     <t>{method '__exit__' of '_thread.RLock' objects}</t>
   </si>
   <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\_core\multiarray.py:188(concatenate)</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\_parallel_backends.py:284(effective_n_jobs)</t>
-  </si>
-  <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\joblib\_parallel_backends.py:177(compute_batch_size)</t>
   </si>
   <si>
-    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore.py:66(projFilter)</t>
-  </si>
-  <si>
-    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore.py:60(_filter_single_angle)</t>
+    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore_full_parallelization.py:66(projFilter)</t>
+  </si>
+  <si>
+    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore_full_parallelization.py:60(_filter_single_angle)</t>
   </si>
   <si>
     <t>722</t>
@@ -516,7 +516,7 @@
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\scipy\fftpack\_basic.py:12(fft)</t>
   </si>
   <si>
-    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore.py:80(&lt;genexpr&gt;)</t>
+    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore_full_parallelization.py:80(&lt;genexpr&gt;)</t>
   </si>
   <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\scipy\fft\_pocketfft\helper.py:113(_asfarray)</t>
@@ -543,66 +543,66 @@
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\lib\_type_check_impl.py:84(real)</t>
   </si>
   <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\fft\_helper.py:19(fftshift)</t>
+  </si>
+  <si>
     <t>725</t>
   </si>
   <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\_core\numeric.py:1219(roll)</t>
+  </si>
+  <si>
     <t>728</t>
   </si>
   <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\fft\_helper.py:19(fftshift)</t>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\lib\_version.py:54(__init__)</t>
   </si>
   <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\lib\_type_check_impl.py:80(_real_dispatcher)</t>
   </si>
   <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\_core\numeric.py:1219(roll)</t>
-  </si>
-  <si>
-    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore.py:50(arange2)</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\lib\_version.py:54(__init__)</t>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\re\__init__.py:163(match)</t>
+  </si>
+  <si>
+    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore_full_parallelization.py:50(arange2)</t>
+  </si>
+  <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\_core\numeric.py:1420(normalize_axis_tuple)</t>
   </si>
   <si>
     <t>{built-in method numpy.arange}</t>
   </si>
   <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\re\__init__.py:163(match)</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\_core\numeric.py:1420(normalize_axis_tuple)</t>
-  </si>
-  <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\re\__init__.py:272(_compile)</t>
   </si>
   <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\re\__init__.py:173(search)</t>
+  </si>
+  <si>
+    <t>{built-in method builtins.abs}</t>
+  </si>
+  <si>
     <t>{method 'match' of 're.Pattern' objects}</t>
   </si>
   <si>
-    <t>{built-in method builtins.abs}</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\re\__init__.py:173(search)</t>
-  </si>
-  <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\lib\_version.py:61(&lt;listcomp&gt;)</t>
   </si>
   <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\_core\numeric.py:1469(&lt;genexpr&gt;)</t>
   </si>
   <si>
+    <t>{built-in method fromkeys}</t>
+  </si>
+  <si>
     <t>{method 'search' of 're.Pattern' objects}</t>
   </si>
   <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\fft\_helper.py:68(&lt;listcomp&gt;)</t>
+  </si>
+  <si>
     <t>{method 'split' of 'str' objects}</t>
   </si>
   <si>
-    <t>{built-in method fromkeys}</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\fft\_helper.py:68(&lt;listcomp&gt;)</t>
-  </si>
-  <si>
     <t>{method 'group' of 're.Match' objects}</t>
   </si>
   <si>
@@ -618,10 +618,10 @@
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\_core\numeric.py:1215(_roll_dispatcher)</t>
   </si>
   <si>
-    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore.py:99(backproject)</t>
-  </si>
-  <si>
-    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore.py:88(_backproj_single_angle)</t>
+    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore_full_parallelization.py:99(backproject)</t>
+  </si>
+  <si>
+    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore_full_parallelization.py:88(_backproj_single_angle)</t>
   </si>
   <si>
     <t>{method 'astype' of 'numpy.ndarray' objects}</t>
@@ -636,18 +636,18 @@
     <t>{method 'round' of 'numpy.ndarray' objects}</t>
   </si>
   <si>
-    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore.py:110(&lt;genexpr&gt;)</t>
+    <t>f:\TEEP\CT-Image-Reconstruction-Project\python-scripts\filtbackproj_multicore_full_parallelization.py:110(&lt;genexpr&gt;)</t>
   </si>
   <si>
     <t>{built-in method numpy.zeros}</t>
   </si>
   <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\lib\_function_base_impl.py:5134(meshgrid)</t>
+  </si>
+  <si>
     <t>2892</t>
   </si>
   <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\lib\_function_base_impl.py:5134(meshgrid)</t>
-  </si>
-  <si>
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\lib\_function_base_impl.py:5280(&lt;genexpr&gt;)</t>
   </si>
   <si>
@@ -684,10 +684,10 @@
     <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\lib\_stride_tricks_impl.py:542(&lt;listcomp&gt;)</t>
   </si>
   <si>
+    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\lib\_function_base_impl.py:358(iterable)</t>
+  </si>
+  <si>
     <t>{method 'reshape' of 'numpy.ndarray' objects}</t>
-  </si>
-  <si>
-    <t>F:\TEEP\CT-Image-Reconstruction-Project\.conda\Lib\site-packages\numpy\lib\_function_base_impl.py:358(iterable)</t>
   </si>
   <si>
     <t>6</t>
@@ -778,7 +778,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{88832D38-A1E4-4B2D-906C-8B57DA28F69C}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{8BE49493-001A-4046-A092-FCC5125A0F7D}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.35</v>
+        <v>5.1319999999999997</v>
       </c>
       <c r="E2">
-        <v>5.35</v>
+        <v>5.1319999999999997</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.3479999999999999</v>
+        <v>5.13</v>
       </c>
       <c r="E3">
-        <v>5.3479999999999999</v>
+        <v>5.13</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -1147,16 +1147,16 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.3470000000000004</v>
+        <v>5.13</v>
       </c>
       <c r="E4">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1173,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.3380000000000001</v>
+        <v>5.1120000000000001</v>
       </c>
       <c r="E5">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.08</v>
+        <v>4.8250000000000002</v>
       </c>
       <c r="E6">
-        <v>1.4E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.0679999999999996</v>
+        <v>4.8150000000000004</v>
       </c>
       <c r="E7">
         <v>1.4E-2</v>
@@ -1233,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.0540000000000003</v>
+        <v>4.7850000000000001</v>
       </c>
       <c r="E8">
-        <v>1.4E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -1247,16 +1247,16 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>5.05</v>
+        <v>4.7809999999999997</v>
       </c>
       <c r="C9">
-        <v>1.4E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D9">
-        <v>5.05</v>
+        <v>4.7809999999999997</v>
       </c>
       <c r="E9">
-        <v>1.4E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.17899999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1287,13 +1287,13 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.17799999999999999</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.17599999999999999</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.17599999999999999</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1327,13 +1327,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>1.4E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.0999999999999999E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.7E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>7.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.2000000000000003E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1384,36 +1384,36 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
         <v>25</v>
-      </c>
-      <c r="B16">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1.6E-2</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.4999999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1424,36 +1424,36 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
         <v>28</v>
-      </c>
-      <c r="B18">
-        <v>2E-3</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B19">
-        <v>2E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.0999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1464,16 +1464,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>0.01</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1484,16 +1484,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>8.0000000000000002E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B27">
+        <v>1E-3</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>2E-3</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>1E-3</v>
@@ -1633,21 +1633,21 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1659,15 +1659,15 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1679,12 +1679,12 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>2E-3</v>
@@ -1699,12 +1699,12 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B32">
         <v>1E-3</v>
@@ -1747,13 +1747,13 @@
         <v>51</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1764,39 +1764,39 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>1E-3</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D36">
         <v>1E-3</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F36" t="s">
         <v>55</v>
@@ -1824,19 +1824,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>1E-3</v>
       </c>
       <c r="C38">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>1E-3</v>
       </c>
       <c r="E38">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
         <v>58</v>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1859,12 +1859,12 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>1E-3</v>
@@ -1879,15 +1879,15 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B41">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1924,10 +1924,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B43">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1939,12 +1939,12 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1964,16 +1964,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B45">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1984,16 +1984,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B46">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2004,16 +2004,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B47">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2099,12 +2099,12 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2139,12 +2139,12 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2164,27 +2164,27 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
         <v>80</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2204,27 +2204,27 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
         <v>83</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2239,12 +2239,12 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2259,32 +2259,32 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
         <v>88</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2339,12 +2339,12 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2359,12 +2359,12 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2399,12 +2399,12 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2704,27 +2704,27 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
         <v>112</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2779,12 +2779,12 @@
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3039,12 +3039,12 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3059,12 +3059,12 @@
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3079,12 +3079,12 @@
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -3531,9 +3531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3568,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.7E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E2">
-        <v>2.7E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F2" t="s">
         <v>157</v>
@@ -3608,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3622,7 +3620,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3648,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3708,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.0000000000000002E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3768,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3794,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -3839,42 +3837,42 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="B16">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>1E-3</v>
       </c>
       <c r="E16">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D17">
         <v>1E-3</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3899,7 +3897,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3914,12 +3912,12 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3934,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3954,12 +3952,12 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3974,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -3994,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -4014,12 +4012,12 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4034,12 +4032,12 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4054,12 +4052,12 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4074,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -4094,12 +4092,12 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4114,12 +4112,12 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4134,12 +4132,12 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4154,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -4174,12 +4172,12 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4194,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -4214,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>176</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -4234,12 +4232,12 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4254,12 +4252,12 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4274,12 +4272,12 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4294,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -4314,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -4334,12 +4332,12 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4354,12 +4352,12 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4374,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -4394,12 +4392,12 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4414,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -4434,12 +4432,12 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4454,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -4474,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -4514,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -4534,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -4554,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -4574,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -4594,12 +4592,12 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4614,12 +4612,12 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4634,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -4654,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -4679,7 +4677,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4694,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -4774,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -4794,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -4814,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -4834,12 +4832,12 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -4854,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -4874,12 +4872,12 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -4894,12 +4892,12 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -4914,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -4934,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -4954,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -4974,12 +4972,12 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -4994,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -5014,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -5034,12 +5032,12 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -5054,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -5074,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -5094,12 +5092,12 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -5114,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -5134,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -5154,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -5174,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -5194,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -5214,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -5234,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -5254,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -5274,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -5294,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -5314,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -5334,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -5394,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -5434,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -5454,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -5474,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -5494,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -5534,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -5554,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5567,7 +5565,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5597,16 +5595,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.12</v>
+        <v>0.122</v>
       </c>
       <c r="C2">
-        <v>0.12</v>
+        <v>0.122</v>
       </c>
       <c r="D2">
-        <v>7.524</v>
+        <v>7.0860000000000003</v>
       </c>
       <c r="E2">
-        <v>7.524</v>
+        <v>7.0860000000000003</v>
       </c>
       <c r="F2" t="s">
         <v>198</v>
@@ -5623,10 +5621,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.4020000000000001</v>
+        <v>6.9610000000000003</v>
       </c>
       <c r="E3">
-        <v>7.4020000000000001</v>
+        <v>6.9610000000000003</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -5637,16 +5635,16 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.441</v>
+        <v>0.438</v>
       </c>
       <c r="C4">
         <v>1E-3</v>
       </c>
       <c r="D4">
-        <v>7.4009999999999998</v>
+        <v>6.9610000000000003</v>
       </c>
       <c r="E4">
-        <v>0.02</v>
+        <v>1.9E-2</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -5657,16 +5655,16 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>6.2119999999999997</v>
+        <v>5.8339999999999996</v>
       </c>
       <c r="C5">
-        <v>1.7000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D5">
-        <v>6.9480000000000004</v>
+        <v>6.5119999999999996</v>
       </c>
       <c r="E5">
-        <v>1.9E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F5" t="s">
         <v>199</v>
@@ -5677,13 +5675,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.36499999999999999</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="C6">
         <v>1E-3</v>
       </c>
       <c r="D6">
-        <v>0.36499999999999999</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="E6">
         <v>1E-3</v>
@@ -5697,13 +5695,13 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.36399999999999999</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="E7">
         <v>1E-3</v>
@@ -5723,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.36299999999999999</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E8">
         <v>1E-3</v>
@@ -5737,13 +5735,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.36099999999999999</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="C9">
         <v>1E-3</v>
       </c>
       <c r="D9">
-        <v>0.36099999999999999</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="E9">
         <v>1E-3</v>
@@ -5763,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.2E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5783,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.9999999999999993E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5797,13 +5795,13 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -5817,27 +5815,27 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -5846,18 +5844,18 @@
         <v>2E-3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -5866,15 +5864,15 @@
         <v>2E-3</v>
       </c>
       <c r="E15">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>207</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5894,7 +5892,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17">
         <v>2E-3</v>
@@ -5929,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -5937,13 +5935,13 @@
         <v>85</v>
       </c>
       <c r="B19">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -5969,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -5989,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -6049,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -6169,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -6189,12 +6187,12 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6209,12 +6207,12 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -6229,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -6249,12 +6247,12 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -6269,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>215</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -6289,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -6309,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -6329,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>217</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -6349,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -6369,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -6409,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -6429,12 +6427,12 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -6449,12 +6447,12 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6469,12 +6467,12 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6489,12 +6487,12 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6509,12 +6507,12 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6529,12 +6527,12 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>218</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6549,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -6609,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -6649,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -6669,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -6709,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -6729,12 +6727,12 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -6754,7 +6752,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -6769,12 +6767,12 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -6789,12 +6787,12 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -6809,12 +6807,12 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -6829,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>141</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -6849,12 +6847,12 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -6869,12 +6867,12 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -6889,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -6909,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>225</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -6929,12 +6927,12 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -6949,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -6969,12 +6967,12 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -6989,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -7009,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -7029,12 +7027,12 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -7049,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>152</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -7069,12 +7067,12 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -7089,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>226</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -7109,12 +7107,12 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -7129,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -7149,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -7169,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -7189,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -7229,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -7249,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -7269,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>229</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -7289,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
